--- a/sales_data_with_bonus.xlsx
+++ b/sales_data_with_bonus.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">John Smith </t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -505,7 +505,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mike Chen </t>
+          <t>Mike Chen</t>
         </is>
       </c>
       <c r="B4" t="n">
